--- a/web/uploads/data1 (2).xlsx
+++ b/web/uploads/data1 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4620" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Header Data" sheetId="2" r:id="rId1"/>
@@ -841,7 +841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1872,18 +1872,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -3430,7 +3430,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4580,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/web/uploads/data1 (2).xlsx
+++ b/web/uploads/data1 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4620" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4620" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Header Data" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Business Process" sheetId="17" r:id="rId16"/>
     <sheet name="Measures" sheetId="18" r:id="rId17"/>
     <sheet name="social" sheetId="1" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -841,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1872,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3425,6 +3426,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
